--- a/backup_pontuacao.xlsx
+++ b/backup_pontuacao.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B501"/>
+  <dimension ref="A1:B519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,57 +475,57 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>01joca</t>
+          <t>0iCasada</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>0iCasada</t>
+          <t>1mLins</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>0MESTR0</t>
+          <t>2N0T</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>100prata</t>
+          <t>2tenente2</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>113semfreio</t>
+          <t>[FECHAOSAQUE] SadBalao</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>1mLins</t>
+          <t>[IPVE] 0MESTR0</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
@@ -535,17 +535,17 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>1NYXUSS</t>
+          <t>[IPVE] 100prata</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>2N0T</t>
+          <t>[IPVE] Akyrann</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
@@ -555,67 +555,67 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>2tenente2</t>
+          <t>[IPVE] Alerosan</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>66Treta</t>
+          <t>[IPVE] AnySton</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>[IPVE] Klartz</t>
+          <t>[IPVE] BABAYAGA0254</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>AbesTado0</t>
+          <t>[IPVE] Bic1creta</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>AininAinin</t>
+          <t>[IPVE] bjornOConquistad</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>AizemLuffy</t>
+          <t>[IPVE] Brulius</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>Akurian</t>
+          <t>[IPVE] BruxoSilva</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
@@ -625,207 +625,207 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>Akyrann</t>
+          <t>[IPVE] BulbaBR</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>AlanVidal</t>
+          <t>[IPVE] camps</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Albanolol</t>
+          <t>[IPVE] Cans4d0</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>Alerosan</t>
+          <t>[IPVE] Carloswooo</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>Alista4ir</t>
+          <t>[IPVE] CO4LAZ</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>AllanizNN019</t>
+          <t>[IPVE] CondeVS</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>Aluule</t>
+          <t>[IPVE] Corotiinhoo - DennyGames</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>Alvarinhaa</t>
+          <t>[IPVE] DeDio</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>Ambivalente</t>
+          <t>[IPVE] EoNeoroseOficial</t>
         </is>
       </c>
       <c r="B26" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>Andradyboy</t>
+          <t>[IPVE] espaidrom</t>
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>andreribeiro</t>
+          <t>[IPVE] EulinRabo</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>angbor</t>
+          <t>[IPVE] FabaoFattori</t>
         </is>
       </c>
       <c r="B29" s="3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>Angelius</t>
+          <t>[IPVE] FHxd</t>
         </is>
       </c>
       <c r="B30" s="3" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>AnjoWinx</t>
+          <t>[IPVE] FoxBoladao</t>
         </is>
       </c>
       <c r="B31" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>AnnyCaroline</t>
+          <t>[IPVE] Gengiva</t>
         </is>
       </c>
       <c r="B32" s="3" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>AraoRogerio</t>
+          <t>[IPVE] GiveHeart</t>
         </is>
       </c>
       <c r="B33" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>Arduam</t>
+          <t>[IPVE] GoblinDuende</t>
         </is>
       </c>
       <c r="B34" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>Arfuh</t>
+          <t>[IPVE] ihavelowiq</t>
         </is>
       </c>
       <c r="B35" s="3" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>Aselvagem</t>
+          <t>[IPVE] Imperador777</t>
         </is>
       </c>
       <c r="B36" s="3" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>aspiem</t>
+          <t>[IPVE] JannySparrow</t>
         </is>
       </c>
       <c r="B37" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>AxeRoses</t>
+          <t>[IPVE] JayPee021</t>
         </is>
       </c>
       <c r="B38" s="3" t="n">
@@ -835,77 +835,77 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>BABAYAGA0254</t>
+          <t>[IPVE] Jedidogoias</t>
         </is>
       </c>
       <c r="B39" s="3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>bacalhauanemico</t>
+          <t>[IPVE] Jeoplay</t>
         </is>
       </c>
       <c r="B40" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>Bahiasoos</t>
+          <t>[IPVE] jjborgs</t>
         </is>
       </c>
       <c r="B41" s="3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>BaLaFinny</t>
+          <t>[IPVE] KiingPirata</t>
         </is>
       </c>
       <c r="B42" s="3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>BalaTicTac</t>
+          <t>[IPVE] Kiltten</t>
         </is>
       </c>
       <c r="B43" s="3" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>BALDUR 157</t>
+          <t>[IPVE] Kiminate</t>
         </is>
       </c>
       <c r="B44" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>Baldur157</t>
+          <t>[IPVE] Klartz</t>
         </is>
       </c>
       <c r="B45" s="3" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>BanqueiroSilas</t>
+          <t>[IPVE] KVRA666</t>
         </is>
       </c>
       <c r="B46" s="3" t="n">
@@ -915,167 +915,167 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>Barretim06</t>
+          <t>[IPVE] L0rDPaganini</t>
         </is>
       </c>
       <c r="B47" s="3" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>Bic1creta</t>
+          <t>[IPVE] Lairton01</t>
         </is>
       </c>
       <c r="B48" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>bigpink666</t>
+          <t>[IPVE] Liivisz</t>
         </is>
       </c>
       <c r="B49" s="3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>BiichaPapao</t>
+          <t>[IPVE] LordVei</t>
         </is>
       </c>
       <c r="B50" s="3" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>BILEKAOO</t>
+          <t>[IPVE] ManeBaiiano</t>
         </is>
       </c>
       <c r="B51" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>Bingolones</t>
+          <t>[IPVE] MatadorDSpam</t>
         </is>
       </c>
       <c r="B52" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>bjornOConquistad</t>
+          <t>[IPVE] METALBOTT</t>
         </is>
       </c>
       <c r="B53" s="3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>bl4ck084</t>
+          <t>[IPVE] MgR2</t>
         </is>
       </c>
       <c r="B54" s="3" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>BlackMestre</t>
+          <t>[IPVE] MonzaTubarao1</t>
         </is>
       </c>
       <c r="B55" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>BlacKZLX</t>
+          <t>[IPVE] Muziconha</t>
         </is>
       </c>
       <c r="B56" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>Branoqk</t>
+          <t>[IPVE] Mvzinn09</t>
         </is>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>Brhiner</t>
+          <t>[IPVE] NovinhaNeguinha</t>
         </is>
       </c>
       <c r="B58" s="3" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>Brithos</t>
+          <t>[IPVE] Panita8</t>
         </is>
       </c>
       <c r="B59" s="3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>BROkingBLADE</t>
+          <t>[IPVE] Papatchovisk</t>
         </is>
       </c>
       <c r="B60" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>BRSmith</t>
+          <t>[IPVE] Poollegar</t>
         </is>
       </c>
       <c r="B61" s="3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>Brulius</t>
+          <t>[IPVE] PotonRx</t>
         </is>
       </c>
       <c r="B62" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>BruxoSilva</t>
+          <t>[IPVE] Psicowcrazy</t>
         </is>
       </c>
       <c r="B63" s="3" t="n">
@@ -1085,187 +1085,187 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>bukubusama</t>
+          <t>[IPVE] Ratiero</t>
         </is>
       </c>
       <c r="B64" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>BulbaBR</t>
+          <t>[IPVE] Reaperr</t>
         </is>
       </c>
       <c r="B65" s="3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>C0TINH4</t>
+          <t>[IPVE] Rickmendes</t>
         </is>
       </c>
       <c r="B66" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>C4NNABIS</t>
+          <t>[IPVE] Romuloqn</t>
         </is>
       </c>
       <c r="B67" s="3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>CacildaMacumba</t>
+          <t>[IPVE] RUSS0</t>
         </is>
       </c>
       <c r="B68" s="3" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>CaIlerBuceta</t>
+          <t>[IPVE] SeraphKiIler</t>
         </is>
       </c>
       <c r="B69" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>CaldeirasS</t>
+          <t>[IPVE] SharkInfernal</t>
         </is>
       </c>
       <c r="B70" s="3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>CALVOLEO</t>
+          <t>[IPVE] Snump</t>
         </is>
       </c>
       <c r="B71" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>CatarynaArrastao</t>
+          <t>[IPVE] SuniVsAll</t>
         </is>
       </c>
       <c r="B72" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>Cayser</t>
+          <t>[IPVE] t0kgando</t>
         </is>
       </c>
       <c r="B73" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>cbjrraphael</t>
+          <t>[IPVE] Tintola</t>
         </is>
       </c>
       <c r="B74" s="3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>charmoso2</t>
+          <t>[IPVE] TisuNamye</t>
         </is>
       </c>
       <c r="B75" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>Claudiodks</t>
+          <t>[IPVE] TravecoDoBeco</t>
         </is>
       </c>
       <c r="B76" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>clutchking001</t>
+          <t>[IPVE] Triccao</t>
         </is>
       </c>
       <c r="B77" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>CO4LAZ</t>
+          <t>[IPVE] UNO4PORT4</t>
         </is>
       </c>
       <c r="B78" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>CondeVS</t>
+          <t>[IPVE] Uzarak</t>
         </is>
       </c>
       <c r="B79" s="3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>Corotiinhoo - DennyGames</t>
+          <t>[IPVE] ValdoSmeck</t>
         </is>
       </c>
       <c r="B80" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>Cotozer</t>
+          <t>[IPVE] VietSoul</t>
         </is>
       </c>
       <c r="B81" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>CriadorRX</t>
+          <t>[IPVE] Vizinius</t>
         </is>
       </c>
       <c r="B82" s="3" t="n">
@@ -1275,7 +1275,7 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>Crouckk</t>
+          <t>[IPVE] WILLYNYOON</t>
         </is>
       </c>
       <c r="B83" s="3" t="n">
@@ -1285,47 +1285,47 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>Cukie</t>
+          <t>[IPVE] WizardMasterrr</t>
         </is>
       </c>
       <c r="B84" s="3" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>CurrySniper</t>
+          <t>[IPVE] Wolfhan25</t>
         </is>
       </c>
       <c r="B85" s="3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>D4rKnight03</t>
+          <t>[IPVE] Woneby</t>
         </is>
       </c>
       <c r="B86" s="3" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>Dans</t>
+          <t>[IPVE] xdecha</t>
         </is>
       </c>
       <c r="B87" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>davi253</t>
+          <t>[IPVE] xGabroo</t>
         </is>
       </c>
       <c r="B88" s="3" t="n">
@@ -1335,137 +1335,137 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>daymartins</t>
+          <t>[IPVE] yagozin</t>
         </is>
       </c>
       <c r="B89" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>[IPVE] yasuodoalbionbr</t>
         </is>
       </c>
       <c r="B90" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>Debron1622</t>
+          <t>[IPVE] Zababato</t>
         </is>
       </c>
       <c r="B91" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>DeDio</t>
+          <t>[IPVE] zeradoF</t>
         </is>
       </c>
       <c r="B92" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>Delavinho</t>
+          <t>[IPVE] Zsytinirt</t>
         </is>
       </c>
       <c r="B93" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>delimb</t>
+          <t>[IPVE] Zugel</t>
         </is>
       </c>
       <c r="B94" s="3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>DemiurgosT</t>
+          <t>[PVE]  AnnyCaroline</t>
         </is>
       </c>
       <c r="B95" s="3" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>desprezoangustia</t>
+          <t>[PVE]  Ludibriell</t>
         </is>
       </c>
       <c r="B96" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>DexTer</t>
+          <t>[PVE]  Merlov</t>
         </is>
       </c>
       <c r="B97" s="3" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>Dignis33</t>
+          <t>[PVE] 01joca</t>
         </is>
       </c>
       <c r="B98" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>Dim6969</t>
+          <t>[PVE] 113semfreio</t>
         </is>
       </c>
       <c r="B99" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>DIONSIOxxx</t>
+          <t>[PVE] 1NYXUSS</t>
         </is>
       </c>
       <c r="B100" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>DKayleD</t>
+          <t>[PVE] 66Treta</t>
         </is>
       </c>
       <c r="B101" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>DogeLordu</t>
+          <t>[PVE] Akurian</t>
         </is>
       </c>
       <c r="B102" s="3" t="n">
@@ -1475,37 +1475,37 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>DOGLIM</t>
+          <t>[PVE] Albanolol</t>
         </is>
       </c>
       <c r="B103" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>DominusPerditor</t>
+          <t>[PVE] Ap0th</t>
         </is>
       </c>
       <c r="B104" s="3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>Doncaixote</t>
+          <t>[PVE] AraoRogerio</t>
         </is>
       </c>
       <c r="B105" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>dooniin</t>
+          <t>[PVE] Arduam</t>
         </is>
       </c>
       <c r="B106" s="3" t="n">
@@ -1515,7 +1515,7 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>Dougtaliba</t>
+          <t>[PVE] aspiem</t>
         </is>
       </c>
       <c r="B107" s="3" t="n">
@@ -1525,87 +1525,87 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>DraculEmpalador</t>
+          <t>[PVE] Bahiasoos</t>
         </is>
       </c>
       <c r="B108" s="3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>Drakoo</t>
+          <t>[PVE] BiichaPapao</t>
         </is>
       </c>
       <c r="B109" s="3" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>Drizszk</t>
+          <t>[PVE] BILEKAOO</t>
         </is>
       </c>
       <c r="B110" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>DrLeno</t>
+          <t>[PVE] BlacKZLX</t>
         </is>
       </c>
       <c r="B111" s="3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>DrMotta</t>
+          <t>[PVE] Brithos</t>
         </is>
       </c>
       <c r="B112" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>duncanmacloudd</t>
+          <t>[PVE] BRSmith</t>
         </is>
       </c>
       <c r="B113" s="3" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>DuoDexter</t>
+          <t>[PVE] C0TINH4</t>
         </is>
       </c>
       <c r="B114" s="3" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>DuoEmyy</t>
+          <t>[PVE] CaldeirasS</t>
         </is>
       </c>
       <c r="B115" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>Ed1ted</t>
+          <t>[PVE] CALVOLEO</t>
         </is>
       </c>
       <c r="B116" s="3" t="n">
@@ -1615,37 +1615,37 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>Edub4ta</t>
+          <t>[PVE] CatarynaArrastao</t>
         </is>
       </c>
       <c r="B117" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>edulord20</t>
+          <t>[PVE] cbjrraphael</t>
         </is>
       </c>
       <c r="B118" s="3" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>EoKell</t>
+          <t>[PVE] clutchking001</t>
         </is>
       </c>
       <c r="B119" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>EoNeoroseOficial</t>
+          <t>[PVE] CriadorRX</t>
         </is>
       </c>
       <c r="B120" s="3" t="n">
@@ -1655,37 +1655,37 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>EoPedrinm</t>
+          <t>[PVE] D4rKnight03</t>
         </is>
       </c>
       <c r="B121" s="3" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>ESNAIC90</t>
+          <t>[PVE] DemiurgosT</t>
         </is>
       </c>
       <c r="B122" s="3" t="n">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>Espadeiroeiro</t>
+          <t>[PVE] DIONSIOxxx</t>
         </is>
       </c>
       <c r="B123" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>espaidrom</t>
+          <t>[PVE] DOGLIM</t>
         </is>
       </c>
       <c r="B124" s="3" t="n">
@@ -1695,107 +1695,107 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>Esquilo</t>
+          <t>[PVE] DominusPerditor</t>
         </is>
       </c>
       <c r="B125" s="3" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>ETBILUshop</t>
+          <t>[PVE] dooniin</t>
         </is>
       </c>
       <c r="B126" s="3" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>EulinRabo</t>
+          <t>[PVE] DraculEmpalador</t>
         </is>
       </c>
       <c r="B127" s="3" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>eyylo</t>
+          <t>[PVE] Drakoo</t>
         </is>
       </c>
       <c r="B128" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>ezlizz</t>
+          <t>[PVE] duncanmacloudd</t>
         </is>
       </c>
       <c r="B129" s="3" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>FabaoFattori</t>
+          <t>[PVE] DuoDexter</t>
         </is>
       </c>
       <c r="B130" s="3" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>Fabpotato</t>
+          <t>[PVE] DuoEmyy</t>
         </is>
       </c>
       <c r="B131" s="3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>FantasyGSPrimo</t>
+          <t>[PVE] edulord20</t>
         </is>
       </c>
       <c r="B132" s="3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>fegat90</t>
+          <t>[PVE] EoPedrinm</t>
         </is>
       </c>
       <c r="B133" s="3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>Fendrich</t>
+          <t>[PVE] ESNAIC90</t>
         </is>
       </c>
       <c r="B134" s="3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>Fendrich10</t>
+          <t>[PVE] Fendrich10</t>
         </is>
       </c>
       <c r="B135" s="3" t="n">
@@ -1805,37 +1805,37 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>ferranti013</t>
+          <t>[PVE] finho4726</t>
         </is>
       </c>
       <c r="B136" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>FHxd</t>
+          <t>[PVE] Firenoex01</t>
         </is>
       </c>
       <c r="B137" s="3" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>finho4726</t>
+          <t>[PVE] FTxULTRA</t>
         </is>
       </c>
       <c r="B138" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>fiofoncio</t>
+          <t>[PVE] FUJIZADA</t>
         </is>
       </c>
       <c r="B139" s="3" t="n">
@@ -1845,47 +1845,47 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>FireG3</t>
+          <t>[PVE] FuriaGnN</t>
         </is>
       </c>
       <c r="B140" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>Firenoex01</t>
+          <t>[PVE] Gelcimar</t>
         </is>
       </c>
       <c r="B141" s="3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>FlokiBrx</t>
+          <t>[PVE] Gordon920</t>
         </is>
       </c>
       <c r="B142" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>FoxBoladao</t>
+          <t>[PVE] GreatBear</t>
         </is>
       </c>
       <c r="B143" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>FROTEM</t>
+          <t>[PVE] Grrr6055</t>
         </is>
       </c>
       <c r="B144" s="3" t="n">
@@ -1895,127 +1895,127 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>Frozen90909</t>
+          <t>[PVE] Guewold</t>
         </is>
       </c>
       <c r="B145" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>FTxULTRA</t>
+          <t>[PVE] guifon</t>
         </is>
       </c>
       <c r="B146" s="3" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>fUckMydick</t>
+          <t>[PVE] Hatakkey</t>
         </is>
       </c>
       <c r="B147" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>FuriaGnN</t>
+          <t>[PVE] HELLTiTi</t>
         </is>
       </c>
       <c r="B148" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>FusasAckerman</t>
+          <t>[PVE] HIGHLANDE</t>
         </is>
       </c>
       <c r="B149" s="3" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>G2Lucin</t>
+          <t>[PVE] Hoonju</t>
         </is>
       </c>
       <c r="B150" s="3" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>Galanzinn</t>
+          <t>[PVE] HunterStaff</t>
         </is>
       </c>
       <c r="B151" s="3" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>Ganity</t>
+          <t>[PVE] HUYNAR</t>
         </is>
       </c>
       <c r="B152" s="3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>Gelcimar</t>
+          <t>[PVE] iAllan</t>
         </is>
       </c>
       <c r="B153" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>Gengiva</t>
+          <t>[PVE] ImLINS</t>
         </is>
       </c>
       <c r="B154" s="3" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>geObr</t>
+          <t>[PVE] J0an4darcu</t>
         </is>
       </c>
       <c r="B155" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>Gillmore</t>
+          <t>[PVE] jcb21</t>
         </is>
       </c>
       <c r="B156" s="3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>GiveHeart</t>
+          <t>[PVE] JesterJoni</t>
         </is>
       </c>
       <c r="B157" s="3" t="n">
@@ -2025,7 +2025,7 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>GODKOK</t>
+          <t>[PVE] Jhureg</t>
         </is>
       </c>
       <c r="B158" s="3" t="n">
@@ -2035,7 +2035,7 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>GolemApenas</t>
+          <t>[PVE] jp1997</t>
         </is>
       </c>
       <c r="B159" s="3" t="n">
@@ -2045,27 +2045,27 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>Gordon920</t>
+          <t>[PVE] juninhoPh</t>
         </is>
       </c>
       <c r="B160" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>GreatBear</t>
+          <t>[PVE] Jurandir2</t>
         </is>
       </c>
       <c r="B161" s="3" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>Gudrey</t>
+          <t>[PVE] Jvvrrr</t>
         </is>
       </c>
       <c r="B162" s="3" t="n">
@@ -2075,167 +2075,167 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>Guewold</t>
+          <t>[PVE] KalleBRA</t>
         </is>
       </c>
       <c r="B163" s="3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>GuiEty</t>
+          <t>[PVE] Kazenca</t>
         </is>
       </c>
       <c r="B164" s="3" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>guifon</t>
+          <t>[PVE] Kimeruz</t>
         </is>
       </c>
       <c r="B165" s="3" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>Guiinomio</t>
+          <t>[PVE] Kindova</t>
         </is>
       </c>
       <c r="B166" s="3" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>Hatakkey</t>
+          <t>[PVE] KingVMK</t>
         </is>
       </c>
       <c r="B167" s="3" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>Helena1993</t>
+          <t>[PVE] LABEASTKOK</t>
         </is>
       </c>
       <c r="B168" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>HELLTiTi</t>
+          <t>[PVE] laralin</t>
         </is>
       </c>
       <c r="B169" s="3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>HenriqueSay</t>
+          <t>[PVE] Legolasduvrau</t>
         </is>
       </c>
       <c r="B170" s="3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>hgfarm</t>
+          <t>[PVE] Leozinxwp</t>
         </is>
       </c>
       <c r="B171" s="3" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>HIGHLANDE</t>
+          <t>[PVE] lKyroxl</t>
         </is>
       </c>
       <c r="B172" s="3" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>hollowprofano</t>
+          <t>[PVE] LoordLe</t>
         </is>
       </c>
       <c r="B173" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>homemgravido</t>
+          <t>[PVE] LordFeer</t>
         </is>
       </c>
       <c r="B174" s="3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>Hoonju</t>
+          <t>[PVE] lSputnik</t>
         </is>
       </c>
       <c r="B175" s="3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>HunterStaff</t>
+          <t>[PVE] LuizGusmao</t>
         </is>
       </c>
       <c r="B176" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>HUYNAR</t>
+          <t>[PVE] M44XXX</t>
         </is>
       </c>
       <c r="B177" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>HxEgirl</t>
+          <t>[PVE] Maelaine</t>
         </is>
       </c>
       <c r="B178" s="3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>iAllan</t>
+          <t>[PVE] MAFFU</t>
         </is>
       </c>
       <c r="B179" s="3" t="n">
@@ -2245,77 +2245,77 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>ihavelowiq</t>
+          <t>[PVE] MagnusVorteX</t>
         </is>
       </c>
       <c r="B180" s="3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>IIIBDS</t>
+          <t>[PVE] Mainclasse</t>
         </is>
       </c>
       <c r="B181" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>ilC3B3RG</t>
+          <t>[PVE] Malandrow</t>
         </is>
       </c>
       <c r="B182" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>imaqtkiwi</t>
+          <t>[PVE] MARIDOdoBIGODE</t>
         </is>
       </c>
       <c r="B183" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>ImLINS</t>
+          <t>[PVE] mastrola</t>
         </is>
       </c>
       <c r="B184" s="3" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>Imperador777</t>
+          <t>[PVE] Matar3i</t>
         </is>
       </c>
       <c r="B185" s="3" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>ImThorfinn</t>
+          <t>[PVE] MeuBoneco</t>
         </is>
       </c>
       <c r="B186" s="3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>InfornoBlade</t>
+          <t>[PVE] Miketz</t>
         </is>
       </c>
       <c r="B187" s="3" t="n">
@@ -2325,347 +2325,347 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>ISputnik</t>
+          <t>[PVE] MikozOo</t>
         </is>
       </c>
       <c r="B188" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>J0an4darcu</t>
+          <t>[PVE] MiZuHaRaChaN</t>
         </is>
       </c>
       <c r="B189" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>JannySparrow</t>
+          <t>[PVE] mmr3dHEALER</t>
         </is>
       </c>
       <c r="B190" s="3" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>jaobolao</t>
+          <t>[PVE] MSMarcal</t>
         </is>
       </c>
       <c r="B191" s="3" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>jcb21</t>
+          <t>[PVE] Mytrato</t>
         </is>
       </c>
       <c r="B192" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>Jedidogoias</t>
+          <t>[PVE] Neguinha1</t>
         </is>
       </c>
       <c r="B193" s="3" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>Jeoplay</t>
+          <t>[PVE] NOTxIGAS</t>
         </is>
       </c>
       <c r="B194" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>JesterJoni</t>
+          <t>[PVE] NovoLegado</t>
         </is>
       </c>
       <c r="B195" s="3" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>Jhureg</t>
+          <t>[PVE] NZ4R</t>
         </is>
       </c>
       <c r="B196" s="3" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>jjborgs</t>
+          <t>[PVE] OMessiahDCR</t>
         </is>
       </c>
       <c r="B197" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>JKRare</t>
+          <t>[PVE] OnassisFeitosa</t>
         </is>
       </c>
       <c r="B198" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>JOELHÃO</t>
+          <t>[PVE] PALTRUS</t>
         </is>
       </c>
       <c r="B199" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>JonSn0wlSback</t>
+          <t>[PVE] Pedroww284</t>
         </is>
       </c>
       <c r="B200" s="3" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>JPszK</t>
+          <t>[PVE] PeidaGala69</t>
         </is>
       </c>
       <c r="B201" s="3" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>JullyGafney</t>
+          <t>[PVE] PepeK4</t>
         </is>
       </c>
       <c r="B202" s="3" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>JungSao</t>
+          <t>[PVE] phtony</t>
         </is>
       </c>
       <c r="B203" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>juninhoPh</t>
+          <t>[PVE] Playzim</t>
         </is>
       </c>
       <c r="B204" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>Jurandir2</t>
+          <t>[PVE] Raegonn</t>
         </is>
       </c>
       <c r="B205" s="3" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>Juungos</t>
+          <t>[PVE] RayXCrazy</t>
         </is>
       </c>
       <c r="B206" s="3" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>Jvvrrr</t>
+          <t>[PVE] RickG4mes</t>
         </is>
       </c>
       <c r="B207" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>Kadenzin</t>
+          <t>[PVE] Runeflux</t>
         </is>
       </c>
       <c r="B208" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>kaiozip</t>
+          <t>[PVE] SAYO77453</t>
         </is>
       </c>
       <c r="B209" s="3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>Kaiporapere</t>
+          <t>[PVE] Senturyon</t>
         </is>
       </c>
       <c r="B210" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>KalleBRA</t>
+          <t>[PVE] SKTFly</t>
         </is>
       </c>
       <c r="B211" s="3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>Kamyh</t>
+          <t>[PVE] spec1715</t>
         </is>
       </c>
       <c r="B212" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>kausk</t>
+          <t>[PVE] SraYoho</t>
         </is>
       </c>
       <c r="B213" s="3" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>Kazenca</t>
+          <t>[PVE] starlaw</t>
         </is>
       </c>
       <c r="B214" s="3" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>Kenchimhimura</t>
+          <t>[PVE] Stevams</t>
         </is>
       </c>
       <c r="B215" s="3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>KennyGl</t>
+          <t>[PVE] strayper</t>
         </is>
       </c>
       <c r="B216" s="3" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>Khardev</t>
+          <t>[PVE] SUPREMO</t>
         </is>
       </c>
       <c r="B217" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>kidsghosto</t>
+          <t>[PVE] tilambokano</t>
         </is>
       </c>
       <c r="B218" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>KiingPirata</t>
+          <t>[PVE] TKaLu</t>
         </is>
       </c>
       <c r="B219" s="3" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>KikaVamp</t>
+          <t>[PVE] Tolotos</t>
         </is>
       </c>
       <c r="B220" s="3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>Killbill</t>
+          <t>[PVE] TomBRx</t>
         </is>
       </c>
       <c r="B221" s="3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>Kiltten</t>
+          <t>[PVE] Traethatruth</t>
         </is>
       </c>
       <c r="B222" s="3" t="n">
@@ -2675,7 +2675,7 @@
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>Kimeruz</t>
+          <t>[PVE] tryharddms</t>
         </is>
       </c>
       <c r="B223" s="3" t="n">
@@ -2685,57 +2685,57 @@
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>Kiminate</t>
+          <t>[PVE] UuWill</t>
         </is>
       </c>
       <c r="B224" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>Kimmylandia</t>
+          <t>[PVE] Ventao</t>
         </is>
       </c>
       <c r="B225" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>Kindova</t>
+          <t>[PVE] Victharion</t>
         </is>
       </c>
       <c r="B226" s="3" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>KingVMK</t>
+          <t>[PVE] ViniOeducador</t>
         </is>
       </c>
       <c r="B227" s="3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>kingzize</t>
+          <t>[PVE] vitinbigod</t>
         </is>
       </c>
       <c r="B228" s="3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>KIOGI</t>
+          <t>[PVE] Vitkar</t>
         </is>
       </c>
       <c r="B229" s="3" t="n">
@@ -2745,47 +2745,47 @@
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>Klartz</t>
+          <t>[PVE] Vyrranox</t>
         </is>
       </c>
       <c r="B230" s="3" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>Kranws</t>
+          <t>[PVE] WcassioW</t>
         </is>
       </c>
       <c r="B231" s="3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>KVRA666</t>
+          <t>[PVE] Welzinnnnn</t>
         </is>
       </c>
       <c r="B232" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>kvvra</t>
+          <t>[PVE] WillTyler</t>
         </is>
       </c>
       <c r="B233" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>L0rDPaganini</t>
+          <t>[PVE] XxOBSxX</t>
         </is>
       </c>
       <c r="B234" s="3" t="n">
@@ -2795,47 +2795,47 @@
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>LABEASTKOK</t>
+          <t>[PVE] yKelenBS</t>
         </is>
       </c>
       <c r="B235" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>Lagertha60</t>
+          <t>[PVE] ZeraBtz</t>
         </is>
       </c>
       <c r="B236" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>LaHass</t>
+          <t>[PVE] ZEUSGORDAOrb</t>
         </is>
       </c>
       <c r="B237" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>Lairton01</t>
+          <t>AbesTado0</t>
         </is>
       </c>
       <c r="B238" s="3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>LAMmythys</t>
+          <t>AininAinin</t>
         </is>
       </c>
       <c r="B239" s="3" t="n">
@@ -2845,27 +2845,27 @@
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>LAMythys</t>
+          <t>AizemLuffy</t>
         </is>
       </c>
       <c r="B240" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>laralin</t>
+          <t>AlanVidal</t>
         </is>
       </c>
       <c r="B241" s="3" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>Legend3112</t>
+          <t>Alista4ir</t>
         </is>
       </c>
       <c r="B242" s="3" t="n">
@@ -2875,77 +2875,77 @@
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>Legolasduvrau</t>
+          <t>AllanizNN019</t>
         </is>
       </c>
       <c r="B243" s="3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>Leizer00</t>
+          <t>Aluule</t>
         </is>
       </c>
       <c r="B244" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>Leox</t>
+          <t>Alvarinhaa</t>
         </is>
       </c>
       <c r="B245" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>Leozinxwp</t>
+          <t>Ambivalente</t>
         </is>
       </c>
       <c r="B246" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>Liivisz</t>
+          <t>Andradyboy</t>
         </is>
       </c>
       <c r="B247" s="3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>LipitoZ</t>
+          <t>andreribeiro</t>
         </is>
       </c>
       <c r="B248" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>lJhhonl</t>
+          <t>angbor</t>
         </is>
       </c>
       <c r="B249" s="3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>lKyroxl</t>
+          <t>Angelius</t>
         </is>
       </c>
       <c r="B250" s="3" t="n">
@@ -2955,7 +2955,7 @@
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>lobinhooou</t>
+          <t>AnjoWinx</t>
         </is>
       </c>
       <c r="B251" s="3" t="n">
@@ -2965,107 +2965,107 @@
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>Logtal</t>
+          <t>Arfuh</t>
         </is>
       </c>
       <c r="B252" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>LoordLe</t>
+          <t>Aselvagem</t>
         </is>
       </c>
       <c r="B253" s="3" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>LordFeer</t>
+          <t>AxeRoses</t>
         </is>
       </c>
       <c r="B254" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>LordMaltazar</t>
+          <t>bacalhauanemico</t>
         </is>
       </c>
       <c r="B255" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>LordVei</t>
+          <t>BaLaFinny</t>
         </is>
       </c>
       <c r="B256" s="3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>LostPikless</t>
+          <t>BalaTicTac</t>
         </is>
       </c>
       <c r="B257" s="3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>LostPVP</t>
+          <t>BALDUR 157</t>
         </is>
       </c>
       <c r="B258" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>lSputnik</t>
+          <t>Baldur157</t>
         </is>
       </c>
       <c r="B259" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>Lucalles</t>
+          <t>BanqueiroSilas</t>
         </is>
       </c>
       <c r="B260" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>Ludibriel</t>
+          <t>Barretim06</t>
         </is>
       </c>
       <c r="B261" s="3" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>Ludibriell</t>
+          <t>bigpink666</t>
         </is>
       </c>
       <c r="B262" s="3" t="n">
@@ -3075,247 +3075,247 @@
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>luizpt</t>
+          <t>Bingolones</t>
         </is>
       </c>
       <c r="B263" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>M1cro0ndas</t>
+          <t>bl4ck084</t>
         </is>
       </c>
       <c r="B264" s="3" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>M44XXX</t>
+          <t>BlackMestre</t>
         </is>
       </c>
       <c r="B265" s="3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>M4neGalinha</t>
+          <t>Branoqk</t>
         </is>
       </c>
       <c r="B266" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>MachadoEldorado</t>
+          <t>Brhiner</t>
         </is>
       </c>
       <c r="B267" s="3" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>Maelaine</t>
+          <t>BROkingBLADE</t>
         </is>
       </c>
       <c r="B268" s="3" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>MAFFU</t>
+          <t>bukubusama</t>
         </is>
       </c>
       <c r="B269" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>MageBoros</t>
+          <t>C4NNABIS</t>
         </is>
       </c>
       <c r="B270" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>MagnusVorteX</t>
+          <t>CacildaMacumba</t>
         </is>
       </c>
       <c r="B271" s="3" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>Mainclasse</t>
+          <t>CaIlerBuceta</t>
         </is>
       </c>
       <c r="B272" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>Malandrow</t>
+          <t>Cayser</t>
         </is>
       </c>
       <c r="B273" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>ManeBaiiano</t>
+          <t>charmoso2</t>
         </is>
       </c>
       <c r="B274" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>MARIDOdoBIGODE</t>
+          <t>Claudiodks</t>
         </is>
       </c>
       <c r="B275" s="3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>Maringoli</t>
+          <t>Cotozer</t>
         </is>
       </c>
       <c r="B276" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>Mario</t>
+          <t>Crouckk</t>
         </is>
       </c>
       <c r="B277" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>MARKINbxd</t>
+          <t>Cukie</t>
         </is>
       </c>
       <c r="B278" s="3" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>Markola01</t>
+          <t>CurrySniper</t>
         </is>
       </c>
       <c r="B279" s="3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>Maryluz2</t>
+          <t>Dans</t>
         </is>
       </c>
       <c r="B280" s="3" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>MasterNoobb</t>
+          <t>davi253</t>
         </is>
       </c>
       <c r="B281" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>mastrola</t>
+          <t>daymartins</t>
         </is>
       </c>
       <c r="B282" s="3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>MatadorDSpam</t>
+          <t>Death</t>
         </is>
       </c>
       <c r="B283" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>Matar3i</t>
+          <t>Debron1622</t>
         </is>
       </c>
       <c r="B284" s="3" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>Matiasdebike</t>
+          <t>Delavinho</t>
         </is>
       </c>
       <c r="B285" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>Mauvadeza</t>
+          <t>delimb</t>
         </is>
       </c>
       <c r="B286" s="3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>Mclovin3215</t>
+          <t>desprezoangustia</t>
         </is>
       </c>
       <c r="B287" s="3" t="n">
@@ -3325,27 +3325,27 @@
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>MechMaromba</t>
+          <t>DexTer</t>
         </is>
       </c>
       <c r="B288" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>MeelbyLaw</t>
+          <t>Dignis33</t>
         </is>
       </c>
       <c r="B289" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>menonovo</t>
+          <t>Dim6969</t>
         </is>
       </c>
       <c r="B290" s="3" t="n">
@@ -3355,107 +3355,107 @@
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>MerlinCheap</t>
+          <t>DKayleD</t>
         </is>
       </c>
       <c r="B291" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>Merlov</t>
+          <t>DogeLordu</t>
         </is>
       </c>
       <c r="B292" s="3" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>MestreMiaggi</t>
+          <t>Doncaixote</t>
         </is>
       </c>
       <c r="B293" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>MeuBoneco</t>
+          <t>Dougtaliba</t>
         </is>
       </c>
       <c r="B294" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>MEURILU</t>
+          <t>Drizszk</t>
         </is>
       </c>
       <c r="B295" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>MgR2</t>
+          <t>DrLeno</t>
         </is>
       </c>
       <c r="B296" s="3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>MichelRod007</t>
+          <t>DrMotta</t>
         </is>
       </c>
       <c r="B297" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>Mickael</t>
+          <t>Ed1ted</t>
         </is>
       </c>
       <c r="B298" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>Mikedz7</t>
+          <t>Edub4ta</t>
         </is>
       </c>
       <c r="B299" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>mikesz7</t>
+          <t>EoKell</t>
         </is>
       </c>
       <c r="B300" s="3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>Miketz</t>
+          <t>Espadeiroeiro</t>
         </is>
       </c>
       <c r="B301" s="3" t="n">
@@ -3465,67 +3465,67 @@
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>MikozOo</t>
+          <t>Esquilo</t>
         </is>
       </c>
       <c r="B302" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>MillerPK</t>
+          <t>ETBILUshop</t>
         </is>
       </c>
       <c r="B303" s="3" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>miltontoddy</t>
+          <t>eyylo</t>
         </is>
       </c>
       <c r="B304" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>MineiroChernobil</t>
+          <t>ezlizz</t>
         </is>
       </c>
       <c r="B305" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>MiZuHaRaChaN</t>
+          <t>Fabpotato</t>
         </is>
       </c>
       <c r="B306" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>mmr3dHEALER</t>
+          <t>FantasyGSPrimo</t>
         </is>
       </c>
       <c r="B307" s="3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>MonzaTubarao1</t>
+          <t>fegat90</t>
         </is>
       </c>
       <c r="B308" s="3" t="n">
@@ -3535,47 +3535,47 @@
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>moreno191</t>
+          <t>Fendrich</t>
         </is>
       </c>
       <c r="B309" s="3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>Morg4na</t>
+          <t>ferranti013</t>
         </is>
       </c>
       <c r="B310" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>Mosquitodengoso</t>
+          <t>fiofoncio</t>
         </is>
       </c>
       <c r="B311" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>Mozieo</t>
+          <t>FireG3</t>
         </is>
       </c>
       <c r="B312" s="3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>MRBR</t>
+          <t>FlokiBrx</t>
         </is>
       </c>
       <c r="B313" s="3" t="n">
@@ -3585,27 +3585,27 @@
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>MrDokki</t>
+          <t>FROTEM</t>
         </is>
       </c>
       <c r="B314" s="3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>MrMochila</t>
+          <t>Frozen90909</t>
         </is>
       </c>
       <c r="B315" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>MrRW87</t>
+          <t>fUckMydick</t>
         </is>
       </c>
       <c r="B316" s="3" t="n">
@@ -3615,77 +3615,77 @@
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>MrSpecter</t>
+          <t>FusasAckerman</t>
         </is>
       </c>
       <c r="B317" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>MSangelius</t>
+          <t>G2Lucin</t>
         </is>
       </c>
       <c r="B318" s="3" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>MSMarcal</t>
+          <t>Galanzinn</t>
         </is>
       </c>
       <c r="B319" s="3" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>Muziconha</t>
+          <t>Ganity</t>
         </is>
       </c>
       <c r="B320" s="3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>Mvzinn09</t>
+          <t>geObr</t>
         </is>
       </c>
       <c r="B321" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>mynetor</t>
+          <t>Gillmore</t>
         </is>
       </c>
       <c r="B322" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="inlineStr">
         <is>
-          <t>Mytrato</t>
+          <t>GODKOK</t>
         </is>
       </c>
       <c r="B323" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>Narebunda</t>
+          <t>GolemApenas</t>
         </is>
       </c>
       <c r="B324" s="3" t="n">
@@ -3695,57 +3695,57 @@
     <row r="325">
       <c r="A325" s="2" t="inlineStr">
         <is>
-          <t>Neguinha1</t>
+          <t>Gudrey</t>
         </is>
       </c>
       <c r="B325" s="3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>Neivaavan</t>
+          <t>GuiEty</t>
         </is>
       </c>
       <c r="B326" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="inlineStr">
         <is>
-          <t>Njjfjfd</t>
+          <t>Guiinomio</t>
         </is>
       </c>
       <c r="B327" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>NNsoucalvo</t>
+          <t>Helena1993</t>
         </is>
       </c>
       <c r="B328" s="3" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="inlineStr">
         <is>
-          <t>NOTxIGAS</t>
+          <t>HenriqueSay</t>
         </is>
       </c>
       <c r="B329" s="3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="inlineStr">
         <is>
-          <t>NovinhaNeguinha</t>
+          <t>hgfarm</t>
         </is>
       </c>
       <c r="B330" s="3" t="n">
@@ -3755,67 +3755,67 @@
     <row r="331">
       <c r="A331" s="2" t="inlineStr">
         <is>
-          <t>NovoLegado</t>
+          <t>hollowprofano</t>
         </is>
       </c>
       <c r="B331" s="3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="inlineStr">
         <is>
-          <t>Nyhyo</t>
+          <t>homemgravido</t>
         </is>
       </c>
       <c r="B332" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="inlineStr">
         <is>
-          <t>NZ4R</t>
+          <t>HxEgirl</t>
         </is>
       </c>
       <c r="B333" s="3" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="inlineStr">
         <is>
-          <t>Oatrevido</t>
+          <t>IIIBDS</t>
         </is>
       </c>
       <c r="B334" s="3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="inlineStr">
         <is>
-          <t>Ofulano</t>
+          <t>ilC3B3RG</t>
         </is>
       </c>
       <c r="B335" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="inlineStr">
         <is>
-          <t>OGsumiu</t>
+          <t>imaqtkiwi</t>
         </is>
       </c>
       <c r="B336" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="inlineStr">
         <is>
-          <t>OMessiahDCR</t>
+          <t>ImThorfinn</t>
         </is>
       </c>
       <c r="B337" s="3" t="n">
@@ -3825,167 +3825,167 @@
     <row r="338">
       <c r="A338" s="2" t="inlineStr">
         <is>
-          <t>OnassisFeitosa</t>
+          <t>InfornoBlade</t>
         </is>
       </c>
       <c r="B338" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="inlineStr">
         <is>
-          <t>OpyGordao</t>
+          <t>ISputnik</t>
         </is>
       </c>
       <c r="B339" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="inlineStr">
         <is>
-          <t>osaponaolavaope</t>
+          <t>jaobolao</t>
         </is>
       </c>
       <c r="B340" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="inlineStr">
         <is>
-          <t>otaldoliso</t>
+          <t>JKRare</t>
         </is>
       </c>
       <c r="B341" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="inlineStr">
         <is>
-          <t>OVER</t>
+          <t>JOELHÃO</t>
         </is>
       </c>
       <c r="B342" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="inlineStr">
         <is>
-          <t>Ozaw</t>
+          <t>JonSn0wlSback</t>
         </is>
       </c>
       <c r="B343" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="inlineStr">
         <is>
-          <t>PALTRUS</t>
+          <t>JPszK</t>
         </is>
       </c>
       <c r="B344" s="3" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="inlineStr">
         <is>
-          <t>Panita8</t>
+          <t>JullyGafney</t>
         </is>
       </c>
       <c r="B345" s="3" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="inlineStr">
         <is>
-          <t>Papatchovisk</t>
+          <t>JungSao</t>
         </is>
       </c>
       <c r="B346" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="inlineStr">
         <is>
-          <t>Patroa013</t>
+          <t>Juungos</t>
         </is>
       </c>
       <c r="B347" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="inlineStr">
         <is>
-          <t>Pedrin</t>
+          <t>Kadenzin</t>
         </is>
       </c>
       <c r="B348" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="inlineStr">
         <is>
-          <t>Pedroww284</t>
+          <t>kaiozip</t>
         </is>
       </c>
       <c r="B349" s="3" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="inlineStr">
         <is>
-          <t>PeidaGala69</t>
+          <t>Kaiporapere</t>
         </is>
       </c>
       <c r="B350" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="inlineStr">
         <is>
-          <t>Pejorativo</t>
+          <t>Kamyh</t>
         </is>
       </c>
       <c r="B351" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="inlineStr">
         <is>
-          <t>PepeK4</t>
+          <t>kausk</t>
         </is>
       </c>
       <c r="B352" s="3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="inlineStr">
         <is>
-          <t>PescadorVelho</t>
+          <t>KennyGl</t>
         </is>
       </c>
       <c r="B353" s="3" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="inlineStr">
         <is>
-          <t>Ph</t>
+          <t>Khardev</t>
         </is>
       </c>
       <c r="B354" s="3" t="n">
@@ -3995,107 +3995,107 @@
     <row r="355">
       <c r="A355" s="2" t="inlineStr">
         <is>
-          <t>PheziiiNx3</t>
+          <t>kidsghosto</t>
         </is>
       </c>
       <c r="B355" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="inlineStr">
         <is>
-          <t>phtony</t>
+          <t>KikaVamp</t>
         </is>
       </c>
       <c r="B356" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="inlineStr">
         <is>
-          <t>Phziinn13</t>
+          <t>Killbill</t>
         </is>
       </c>
       <c r="B357" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="inlineStr">
         <is>
-          <t>PirulitoRox</t>
+          <t>Kimmylandia</t>
         </is>
       </c>
       <c r="B358" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="inlineStr">
         <is>
-          <t>Pitysagabugador</t>
+          <t>kingzize</t>
         </is>
       </c>
       <c r="B359" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="inlineStr">
         <is>
-          <t>Playzim</t>
+          <t>KIOGI</t>
         </is>
       </c>
       <c r="B360" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="inlineStr">
         <is>
-          <t>Poollegar</t>
+          <t>Kranws</t>
         </is>
       </c>
       <c r="B361" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="inlineStr">
         <is>
-          <t>PotonRx</t>
+          <t>kvvra</t>
         </is>
       </c>
       <c r="B362" s="3" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="inlineStr">
         <is>
-          <t>Powernorm</t>
+          <t>Lagertha60</t>
         </is>
       </c>
       <c r="B363" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="inlineStr">
         <is>
-          <t>prkSACOLAcraft</t>
+          <t>LaHass</t>
         </is>
       </c>
       <c r="B364" s="3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="inlineStr">
         <is>
-          <t>Psicowcrazy</t>
+          <t>LAMmythys</t>
         </is>
       </c>
       <c r="B365" s="3" t="n">
@@ -4105,177 +4105,177 @@
     <row r="366">
       <c r="A366" s="2" t="inlineStr">
         <is>
-          <t>Psyrage</t>
+          <t>LAMythys</t>
         </is>
       </c>
       <c r="B366" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="inlineStr">
         <is>
-          <t>PVaSjr</t>
+          <t>Legend3112</t>
         </is>
       </c>
       <c r="B367" s="3" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="inlineStr">
         <is>
-          <t>r4b1xco</t>
+          <t>Leizer00</t>
         </is>
       </c>
       <c r="B368" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="inlineStr">
         <is>
-          <t>Raaduj</t>
+          <t>Leox</t>
         </is>
       </c>
       <c r="B369" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="inlineStr">
         <is>
-          <t>RadarDruid</t>
+          <t>LipitoZ</t>
         </is>
       </c>
       <c r="B370" s="3" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="inlineStr">
         <is>
-          <t>Raegonn</t>
+          <t>lJhhonl</t>
         </is>
       </c>
       <c r="B371" s="3" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="inlineStr">
         <is>
-          <t>Rankzada</t>
+          <t>lobinhooou</t>
         </is>
       </c>
       <c r="B372" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="inlineStr">
         <is>
-          <t>Rapha95</t>
+          <t>Logtal</t>
         </is>
       </c>
       <c r="B373" s="3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="inlineStr">
         <is>
-          <t>RaulKK7</t>
+          <t>LordMaltazar</t>
         </is>
       </c>
       <c r="B374" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="inlineStr">
         <is>
-          <t>RayXCrazy</t>
+          <t>LostPikless</t>
         </is>
       </c>
       <c r="B375" s="3" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="inlineStr">
         <is>
-          <t>Reaperr</t>
+          <t>LostPVP</t>
         </is>
       </c>
       <c r="B376" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="inlineStr">
         <is>
-          <t>renanzn</t>
+          <t>Lucalles</t>
         </is>
       </c>
       <c r="B377" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="inlineStr">
         <is>
-          <t>Revs4</t>
+          <t>Ludibriel</t>
         </is>
       </c>
       <c r="B378" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="inlineStr">
         <is>
-          <t>RickG4mes</t>
+          <t>luizpt</t>
         </is>
       </c>
       <c r="B379" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="inlineStr">
         <is>
-          <t>Robson21br</t>
+          <t>M1cro0ndas</t>
         </is>
       </c>
       <c r="B380" s="3" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="inlineStr">
         <is>
-          <t>Rochynz</t>
+          <t>M4neGalinha</t>
         </is>
       </c>
       <c r="B381" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="inlineStr">
         <is>
-          <t>Romuloqn</t>
+          <t>MachadoEldorado</t>
         </is>
       </c>
       <c r="B382" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="inlineStr">
         <is>
-          <t>Ronanquarto</t>
+          <t>MageBoros</t>
         </is>
       </c>
       <c r="B383" s="3" t="n">
@@ -4285,17 +4285,17 @@
     <row r="384">
       <c r="A384" s="2" t="inlineStr">
         <is>
-          <t>RudemSz</t>
+          <t>Maringoli</t>
         </is>
       </c>
       <c r="B384" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="inlineStr">
         <is>
-          <t>Runeflux</t>
+          <t>Mario</t>
         </is>
       </c>
       <c r="B385" s="3" t="n">
@@ -4305,87 +4305,87 @@
     <row r="386">
       <c r="A386" s="2" t="inlineStr">
         <is>
-          <t>RUSS0</t>
+          <t>MARKINbxd</t>
         </is>
       </c>
       <c r="B386" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="inlineStr">
         <is>
-          <t>Rutao2</t>
+          <t>Markola01</t>
         </is>
       </c>
       <c r="B387" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="inlineStr">
         <is>
-          <t>SadBalao</t>
+          <t>Maryluz2</t>
         </is>
       </c>
       <c r="B388" s="3" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="inlineStr">
         <is>
-          <t>SaikaXD</t>
+          <t>MasterNoobb</t>
         </is>
       </c>
       <c r="B389" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="inlineStr">
         <is>
-          <t>Sanderson1234</t>
+          <t>Matiasdebike</t>
         </is>
       </c>
       <c r="B390" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="inlineStr">
         <is>
-          <t>Saorim89</t>
+          <t>Mauvadeza</t>
         </is>
       </c>
       <c r="B391" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="inlineStr">
         <is>
-          <t>satama827373737</t>
+          <t>Mclovin3215</t>
         </is>
       </c>
       <c r="B392" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="inlineStr">
         <is>
-          <t>SAYO77453</t>
+          <t>MechMaromba</t>
         </is>
       </c>
       <c r="B393" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="inlineStr">
         <is>
-          <t>Scripts</t>
+          <t>MeelbyLaw</t>
         </is>
       </c>
       <c r="B394" s="3" t="n">
@@ -4395,7 +4395,7 @@
     <row r="395">
       <c r="A395" s="2" t="inlineStr">
         <is>
-          <t>Selvagem</t>
+          <t>menonovo</t>
         </is>
       </c>
       <c r="B395" s="3" t="n">
@@ -4405,97 +4405,97 @@
     <row r="396">
       <c r="A396" s="2" t="inlineStr">
         <is>
-          <t>Senturyon</t>
+          <t>MerlinCheap</t>
         </is>
       </c>
       <c r="B396" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="inlineStr">
         <is>
-          <t>Seventkill</t>
+          <t>MestreMiaggi</t>
         </is>
       </c>
       <c r="B397" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="inlineStr">
         <is>
-          <t>ShacomigoOFF</t>
+          <t>MEURILU</t>
         </is>
       </c>
       <c r="B398" s="3" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="inlineStr">
         <is>
-          <t>ShadowfKing</t>
+          <t>MichelRod007</t>
         </is>
       </c>
       <c r="B399" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="inlineStr">
         <is>
-          <t>Shaintai</t>
+          <t>Mickael</t>
         </is>
       </c>
       <c r="B400" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="inlineStr">
         <is>
-          <t>shaolin</t>
+          <t>Mikedz7</t>
         </is>
       </c>
       <c r="B401" s="3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="inlineStr">
         <is>
-          <t>SharkInfernal</t>
+          <t>mikesz7</t>
         </is>
       </c>
       <c r="B402" s="3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="inlineStr">
         <is>
-          <t>ShiYroe</t>
+          <t>MillerPK</t>
         </is>
       </c>
       <c r="B403" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="inlineStr">
         <is>
-          <t>Sirkyommaro</t>
+          <t>miltontoddy</t>
         </is>
       </c>
       <c r="B404" s="3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="inlineStr">
         <is>
-          <t>Sirzedupao</t>
+          <t>MineiroChernobil</t>
         </is>
       </c>
       <c r="B405" s="3" t="n">
@@ -4505,27 +4505,27 @@
     <row r="406">
       <c r="A406" s="2" t="inlineStr">
         <is>
-          <t>SKTFly</t>
+          <t>moreno191</t>
         </is>
       </c>
       <c r="B406" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="inlineStr">
         <is>
-          <t>skyderante</t>
+          <t>Morg4na</t>
         </is>
       </c>
       <c r="B407" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="inlineStr">
         <is>
-          <t>Sloowee</t>
+          <t>Mosquitodengoso</t>
         </is>
       </c>
       <c r="B408" s="3" t="n">
@@ -4535,87 +4535,87 @@
     <row r="409">
       <c r="A409" s="2" t="inlineStr">
         <is>
-          <t>Snump</t>
+          <t>Mozieo</t>
         </is>
       </c>
       <c r="B409" s="3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="inlineStr">
         <is>
-          <t>SoulReaper4</t>
+          <t>MRBR</t>
         </is>
       </c>
       <c r="B410" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="inlineStr">
         <is>
-          <t>spartans</t>
+          <t>MrDokki</t>
         </is>
       </c>
       <c r="B411" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="inlineStr">
         <is>
-          <t>Spartans33</t>
+          <t>MrMochila</t>
         </is>
       </c>
       <c r="B412" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="inlineStr">
         <is>
-          <t>spec1715</t>
+          <t>MrRW87</t>
         </is>
       </c>
       <c r="B413" s="3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="inlineStr">
         <is>
-          <t>SpellLike</t>
+          <t>MrSpecter</t>
         </is>
       </c>
       <c r="B414" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="inlineStr">
         <is>
-          <t>SraYoho</t>
+          <t>MSangelius</t>
         </is>
       </c>
       <c r="B415" s="3" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="inlineStr">
         <is>
-          <t>Srjaum</t>
+          <t>mynetor</t>
         </is>
       </c>
       <c r="B416" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="inlineStr">
         <is>
-          <t>starlaw</t>
+          <t>Narebunda</t>
         </is>
       </c>
       <c r="B417" s="3" t="n">
@@ -4625,67 +4625,67 @@
     <row r="418">
       <c r="A418" s="2" t="inlineStr">
         <is>
-          <t>Stevams</t>
+          <t>Neivaavan</t>
         </is>
       </c>
       <c r="B418" s="3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="inlineStr">
         <is>
-          <t>strayper</t>
+          <t>Njjfjfd</t>
         </is>
       </c>
       <c r="B419" s="3" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="inlineStr">
         <is>
-          <t>Sturiaosalomao</t>
+          <t>NNsoucalvo</t>
         </is>
       </c>
       <c r="B420" s="3" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="inlineStr">
         <is>
-          <t>SuIce</t>
+          <t>Nyhyo</t>
         </is>
       </c>
       <c r="B421" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="inlineStr">
         <is>
-          <t>Suisso</t>
+          <t>Oatrevido</t>
         </is>
       </c>
       <c r="B422" s="3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="inlineStr">
         <is>
-          <t>SuniVsAll</t>
+          <t>Ofulano</t>
         </is>
       </c>
       <c r="B423" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="inlineStr">
         <is>
-          <t>SUPREMO</t>
+          <t>OGsumiu</t>
         </is>
       </c>
       <c r="B424" s="3" t="n">
@@ -4695,7 +4695,7 @@
     <row r="425">
       <c r="A425" s="2" t="inlineStr">
         <is>
-          <t>SwitchHere</t>
+          <t>OpyGordao</t>
         </is>
       </c>
       <c r="B425" s="3" t="n">
@@ -4705,27 +4705,27 @@
     <row r="426">
       <c r="A426" s="2" t="inlineStr">
         <is>
-          <t>t0kgando</t>
+          <t>osaponaolavaope</t>
         </is>
       </c>
       <c r="B426" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="inlineStr">
         <is>
-          <t>T7fallen</t>
+          <t>otaldoliso</t>
         </is>
       </c>
       <c r="B427" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="inlineStr">
         <is>
-          <t>TAPEGANOFOGOBIXO</t>
+          <t>OVER</t>
         </is>
       </c>
       <c r="B428" s="3" t="n">
@@ -4735,77 +4735,77 @@
     <row r="429">
       <c r="A429" s="2" t="inlineStr">
         <is>
-          <t>Terroi</t>
+          <t>Ozaw</t>
         </is>
       </c>
       <c r="B429" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="inlineStr">
         <is>
-          <t>theonewhofucks</t>
+          <t>Patroa013</t>
         </is>
       </c>
       <c r="B430" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="inlineStr">
         <is>
-          <t>Theyzeraxd</t>
+          <t>Pedrin</t>
         </is>
       </c>
       <c r="B431" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="inlineStr">
         <is>
-          <t>Thomylerola</t>
+          <t>Pejorativo</t>
         </is>
       </c>
       <c r="B432" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="inlineStr">
         <is>
-          <t>Tickzeira</t>
+          <t>PescadorVelho</t>
         </is>
       </c>
       <c r="B433" s="3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="inlineStr">
         <is>
-          <t>TiffoD</t>
+          <t>Ph</t>
         </is>
       </c>
       <c r="B434" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="inlineStr">
         <is>
-          <t>Tigerzera</t>
+          <t>PheziiiNx3</t>
         </is>
       </c>
       <c r="B435" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="inlineStr">
         <is>
-          <t>tilambokano</t>
+          <t>Phziinn13</t>
         </is>
       </c>
       <c r="B436" s="3" t="n">
@@ -4815,127 +4815,127 @@
     <row r="437">
       <c r="A437" s="2" t="inlineStr">
         <is>
-          <t>TIOPOETA2</t>
+          <t>PirulitoRox</t>
         </is>
       </c>
       <c r="B437" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="inlineStr">
         <is>
-          <t>Tisukuyomi</t>
+          <t>Pitysagabugador</t>
         </is>
       </c>
       <c r="B438" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="inlineStr">
         <is>
-          <t>TisuNamye</t>
+          <t>Powernorm</t>
         </is>
       </c>
       <c r="B439" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="inlineStr">
         <is>
-          <t>Tolotos</t>
+          <t>prkSACOLAcraft</t>
         </is>
       </c>
       <c r="B440" s="3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="inlineStr">
         <is>
-          <t>TomBRx</t>
+          <t>Psyrage</t>
         </is>
       </c>
       <c r="B441" s="3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="inlineStr">
         <is>
-          <t>Traethatruth</t>
+          <t>PVaSjr</t>
         </is>
       </c>
       <c r="B442" s="3" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="inlineStr">
         <is>
-          <t>TRAX3X</t>
+          <t>r4b1xco</t>
         </is>
       </c>
       <c r="B443" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="inlineStr">
         <is>
-          <t>Triccao</t>
+          <t>Raaduj</t>
         </is>
       </c>
       <c r="B444" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="inlineStr">
         <is>
-          <t>Troppers</t>
+          <t>RadarDruid</t>
         </is>
       </c>
       <c r="B445" s="3" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="inlineStr">
         <is>
-          <t>Trosobadnego</t>
+          <t>Rankzada</t>
         </is>
       </c>
       <c r="B446" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="inlineStr">
         <is>
-          <t>tryharddms</t>
+          <t>Rapha95</t>
         </is>
       </c>
       <c r="B447" s="3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="inlineStr">
         <is>
-          <t>Tryn4m3re</t>
+          <t>RaulKK7</t>
         </is>
       </c>
       <c r="B448" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="inlineStr">
         <is>
-          <t>Trynd4m3re</t>
+          <t>renanzn</t>
         </is>
       </c>
       <c r="B449" s="3" t="n">
@@ -4945,17 +4945,17 @@
     <row r="450">
       <c r="A450" s="2" t="inlineStr">
         <is>
-          <t>umserpadrao</t>
+          <t>Revs4</t>
         </is>
       </c>
       <c r="B450" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="inlineStr">
         <is>
-          <t>UNO4PORT4</t>
+          <t>Robson21br</t>
         </is>
       </c>
       <c r="B451" s="3" t="n">
@@ -4965,7 +4965,7 @@
     <row r="452">
       <c r="A452" s="2" t="inlineStr">
         <is>
-          <t>Unwave</t>
+          <t>Rochynz</t>
         </is>
       </c>
       <c r="B452" s="3" t="n">
@@ -4975,57 +4975,57 @@
     <row r="453">
       <c r="A453" s="2" t="inlineStr">
         <is>
-          <t>UuWill</t>
+          <t>Ronanquarto</t>
         </is>
       </c>
       <c r="B453" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="inlineStr">
         <is>
-          <t>Uzarak</t>
+          <t>RudemSz</t>
         </is>
       </c>
       <c r="B454" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="inlineStr">
         <is>
-          <t>ValdoSmeck</t>
+          <t>Rutao2</t>
         </is>
       </c>
       <c r="B455" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="inlineStr">
         <is>
-          <t>Ventao</t>
+          <t>SaikaXD</t>
         </is>
       </c>
       <c r="B456" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="inlineStr">
         <is>
-          <t>Victharion</t>
+          <t>Sanderson1234</t>
         </is>
       </c>
       <c r="B457" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="inlineStr">
         <is>
-          <t>Vieiraah</t>
+          <t>Saorim89</t>
         </is>
       </c>
       <c r="B458" s="3" t="n">
@@ -5035,7 +5035,7 @@
     <row r="459">
       <c r="A459" s="2" t="inlineStr">
         <is>
-          <t>Viiuva</t>
+          <t>satama827373737</t>
         </is>
       </c>
       <c r="B459" s="3" t="n">
@@ -5045,7 +5045,7 @@
     <row r="460">
       <c r="A460" s="2" t="inlineStr">
         <is>
-          <t>vikingsbr</t>
+          <t>Scripts</t>
         </is>
       </c>
       <c r="B460" s="3" t="n">
@@ -5055,37 +5055,37 @@
     <row r="461">
       <c r="A461" s="2" t="inlineStr">
         <is>
-          <t>ViniOeducador</t>
+          <t>Selvagem</t>
         </is>
       </c>
       <c r="B461" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="inlineStr">
         <is>
-          <t>VinnyVy</t>
+          <t>Seventkill</t>
         </is>
       </c>
       <c r="B462" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="inlineStr">
         <is>
-          <t>vitinbigod</t>
+          <t>ShacomigoOFF</t>
         </is>
       </c>
       <c r="B463" s="3" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="inlineStr">
         <is>
-          <t>Vitkar</t>
+          <t>ShadowfKing</t>
         </is>
       </c>
       <c r="B464" s="3" t="n">
@@ -5095,127 +5095,127 @@
     <row r="465">
       <c r="A465" s="2" t="inlineStr">
         <is>
-          <t>Vizinius</t>
+          <t>Shaintai</t>
         </is>
       </c>
       <c r="B465" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="inlineStr">
         <is>
-          <t>VMONSTbr</t>
+          <t>shaolin</t>
         </is>
       </c>
       <c r="B466" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="inlineStr">
         <is>
-          <t>Vyrranox</t>
+          <t>ShiYroe</t>
         </is>
       </c>
       <c r="B467" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="inlineStr">
         <is>
-          <t>WarEspartano</t>
+          <t>Sirkyommaro</t>
         </is>
       </c>
       <c r="B468" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="inlineStr">
         <is>
-          <t>WcassioW</t>
+          <t>Sirzedupao</t>
         </is>
       </c>
       <c r="B469" s="3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="inlineStr">
         <is>
-          <t>Weendelas</t>
+          <t>skyderante</t>
         </is>
       </c>
       <c r="B470" s="3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="inlineStr">
         <is>
-          <t>Welzinnnnn</t>
+          <t>Sloowee</t>
         </is>
       </c>
       <c r="B471" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="inlineStr">
         <is>
-          <t>Whitexx7</t>
+          <t>SoulReaper4</t>
         </is>
       </c>
       <c r="B472" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="inlineStr">
         <is>
-          <t>WhlskeySJ</t>
+          <t>spartans</t>
         </is>
       </c>
       <c r="B473" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="inlineStr">
         <is>
-          <t>WilliamJ09</t>
+          <t>Spartans33</t>
         </is>
       </c>
       <c r="B474" s="3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="inlineStr">
         <is>
-          <t>WillTyler</t>
+          <t>SpellLike</t>
         </is>
       </c>
       <c r="B475" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="inlineStr">
         <is>
-          <t>WILLYNYOON</t>
+          <t>Srjaum</t>
         </is>
       </c>
       <c r="B476" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="inlineStr">
         <is>
-          <t>WizardMasterrr</t>
+          <t>Sturiaosalomao</t>
         </is>
       </c>
       <c r="B477" s="3" t="n">
@@ -5225,57 +5225,57 @@
     <row r="478">
       <c r="A478" s="2" t="inlineStr">
         <is>
-          <t>Wolfhan25</t>
+          <t>SuIce</t>
         </is>
       </c>
       <c r="B478" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="inlineStr">
         <is>
-          <t>Woneby</t>
+          <t>Suisso</t>
         </is>
       </c>
       <c r="B479" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="inlineStr">
         <is>
-          <t>xdecha</t>
+          <t>SwitchHere</t>
         </is>
       </c>
       <c r="B480" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="inlineStr">
         <is>
-          <t>xdragonBornBR</t>
+          <t>T7fallen</t>
         </is>
       </c>
       <c r="B481" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="inlineStr">
         <is>
-          <t>xGabroo</t>
+          <t>TAPEGANOFOGOBIXO</t>
         </is>
       </c>
       <c r="B482" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="inlineStr">
         <is>
-          <t>XIKUMINERO</t>
+          <t>Terroi</t>
         </is>
       </c>
       <c r="B483" s="3" t="n">
@@ -5285,67 +5285,67 @@
     <row r="484">
       <c r="A484" s="2" t="inlineStr">
         <is>
-          <t>Xrdzera</t>
+          <t>theonewhofucks</t>
         </is>
       </c>
       <c r="B484" s="3" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="inlineStr">
         <is>
-          <t>xVolkeR</t>
+          <t>Theyzeraxd</t>
         </is>
       </c>
       <c r="B485" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="inlineStr">
         <is>
-          <t>XxmillixX</t>
+          <t>Thomylerola</t>
         </is>
       </c>
       <c r="B486" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="inlineStr">
         <is>
-          <t>xxMiolaxx</t>
+          <t>Tickzeira</t>
         </is>
       </c>
       <c r="B487" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="inlineStr">
         <is>
-          <t>XxOBSxX</t>
+          <t>TiffoD</t>
         </is>
       </c>
       <c r="B488" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="inlineStr">
         <is>
-          <t>xxRAGNARxxx</t>
+          <t>Tigerzera</t>
         </is>
       </c>
       <c r="B489" s="3" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="inlineStr">
         <is>
-          <t>yasuodoalbionbr</t>
+          <t>TIOPOETA2</t>
         </is>
       </c>
       <c r="B490" s="3" t="n">
@@ -5355,7 +5355,7 @@
     <row r="491">
       <c r="A491" s="2" t="inlineStr">
         <is>
-          <t>yKelenBS</t>
+          <t>Tisukuyomi</t>
         </is>
       </c>
       <c r="B491" s="3" t="n">
@@ -5365,57 +5365,57 @@
     <row r="492">
       <c r="A492" s="2" t="inlineStr">
         <is>
-          <t>Ylvavert</t>
+          <t>TRAX3X</t>
         </is>
       </c>
       <c r="B492" s="3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="inlineStr">
         <is>
-          <t>Yuhdalih</t>
+          <t>Troppers</t>
         </is>
       </c>
       <c r="B493" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="inlineStr">
         <is>
-          <t>Zababato</t>
+          <t>Trosobadnego</t>
         </is>
       </c>
       <c r="B494" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="inlineStr">
         <is>
-          <t>Zathwiker</t>
+          <t>Tryn4m3re</t>
         </is>
       </c>
       <c r="B495" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="inlineStr">
         <is>
-          <t>ZeraBtz</t>
+          <t>Trynd4m3re</t>
         </is>
       </c>
       <c r="B496" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="inlineStr">
         <is>
-          <t>zeradoF</t>
+          <t>umserpadrao</t>
         </is>
       </c>
       <c r="B497" s="3" t="n">
@@ -5425,27 +5425,27 @@
     <row r="498">
       <c r="A498" s="2" t="inlineStr">
         <is>
-          <t>zeroaluguel</t>
+          <t>Unwave</t>
         </is>
       </c>
       <c r="B498" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="inlineStr">
         <is>
-          <t>ZEUSGORDAOrb</t>
+          <t>Vieiraah</t>
         </is>
       </c>
       <c r="B499" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="inlineStr">
         <is>
-          <t>Zsytinirt</t>
+          <t>Viiuva</t>
         </is>
       </c>
       <c r="B500" s="3" t="n">
@@ -5455,11 +5455,191 @@
     <row r="501">
       <c r="A501" s="2" t="inlineStr">
         <is>
-          <t>Zugel</t>
+          <t>vikingsbr</t>
         </is>
       </c>
       <c r="B501" s="3" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="inlineStr">
+        <is>
+          <t>VinnyVy</t>
+        </is>
+      </c>
+      <c r="B502" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="inlineStr">
+        <is>
+          <t>VMONSTbr</t>
+        </is>
+      </c>
+      <c r="B503" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="inlineStr">
+        <is>
+          <t>WarEspartano</t>
+        </is>
+      </c>
+      <c r="B504" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="inlineStr">
+        <is>
+          <t>Weendelas</t>
+        </is>
+      </c>
+      <c r="B505" s="3" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="inlineStr">
+        <is>
+          <t>Whitexx7</t>
+        </is>
+      </c>
+      <c r="B506" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="inlineStr">
+        <is>
+          <t>WhlskeySJ</t>
+        </is>
+      </c>
+      <c r="B507" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="inlineStr">
+        <is>
+          <t>willianJ09</t>
+        </is>
+      </c>
+      <c r="B508" s="3" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="inlineStr">
+        <is>
+          <t>xdragonBornBR</t>
+        </is>
+      </c>
+      <c r="B509" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="inlineStr">
+        <is>
+          <t>XIKUMINERO</t>
+        </is>
+      </c>
+      <c r="B510" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="inlineStr">
+        <is>
+          <t>Xrdzera</t>
+        </is>
+      </c>
+      <c r="B511" s="3" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="inlineStr">
+        <is>
+          <t>xVolkeR</t>
+        </is>
+      </c>
+      <c r="B512" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="inlineStr">
+        <is>
+          <t>XxmillixX</t>
+        </is>
+      </c>
+      <c r="B513" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="inlineStr">
+        <is>
+          <t>xxMiolaxx</t>
+        </is>
+      </c>
+      <c r="B514" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="inlineStr">
+        <is>
+          <t>xxRAGNARxxx</t>
+        </is>
+      </c>
+      <c r="B515" s="3" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="inlineStr">
+        <is>
+          <t>Ylvavert</t>
+        </is>
+      </c>
+      <c r="B516" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="inlineStr">
+        <is>
+          <t>Yuhdalih</t>
+        </is>
+      </c>
+      <c r="B517" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="inlineStr">
+        <is>
+          <t>Zathwiker</t>
+        </is>
+      </c>
+      <c r="B518" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="inlineStr">
+        <is>
+          <t>zeroaluguel</t>
+        </is>
+      </c>
+      <c r="B519" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
